--- a/SVD_Files/UART.xlsx
+++ b/SVD_Files/UART.xlsx
@@ -1083,7 +1083,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1091,43 +1091,58 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1411,7 +1426,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1419,717 +1434,770 @@
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="10" width="15.7109375" customWidth="1"/>
-    <col min="11" max="11" width="57.7109375" customWidth="1"/>
+    <col min="4" max="10" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="40.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1"/>
+      <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K2" s="3"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="3" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="3" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="3"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="3" t="s">
+      <c r="D6" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="5" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="3"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="3" t="s">
+      <c r="C8" s="6"/>
+      <c r="D8" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="3" t="s">
+      <c r="C9" s="6"/>
+      <c r="D9" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="3" t="s">
+      <c r="C10" s="6"/>
+      <c r="D10" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="3" t="s">
+      <c r="C11" s="6"/>
+      <c r="D11" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="3" t="s">
+      <c r="C12" s="6"/>
+      <c r="D12" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="3" t="s">
+      <c r="C13" s="6"/>
+      <c r="D13" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="3" t="s">
+      <c r="C14" s="6"/>
+      <c r="D14" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="3" t="s">
+      <c r="D15" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="3" t="s">
+      <c r="D16" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="3" t="s">
+      <c r="D17" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="3" t="s">
+      <c r="C18" s="6"/>
+      <c r="D18" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="3"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="5"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="4" t="s">
+      <c r="C20" s="6"/>
+      <c r="D20" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="3" t="s">
+      <c r="H20" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="3"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K22" s="3"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="K23" s="3"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="5"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D24" t="s">
+      <c r="C24" s="6"/>
+      <c r="D24" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="I24" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="J24" s="5" t="s">
+      <c r="J24" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="K24" s="3"/>
+      <c r="K24" s="5"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D25" t="s">
+      <c r="C25" s="6"/>
+      <c r="D25" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="I25" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="J25" s="5" t="s">
+      <c r="J25" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="K25" s="3"/>
+      <c r="K25" s="5"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="C26" s="6"/>
+      <c r="D26" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H26" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="I26" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="J26" s="4" t="s">
+      <c r="J26" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="K26" s="3"/>
+      <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="C27" s="6"/>
+      <c r="D27" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="H27" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="I27" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="J27" s="4" t="s">
+      <c r="J27" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="K27" s="3"/>
+      <c r="K27" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2137,9 +2205,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2149,1724 +2215,1891 @@
     <col min="4" max="4" width="59.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="7"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="5">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="5">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="5">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="5" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="A6" s="5">
+        <v>11</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="5" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="C7" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="8" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="C8" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="15"/>
+      <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="5">
         <v>0</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="7" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="5">
         <v>1</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="5">
         <v>2</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="5" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="5">
         <v>3</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="5" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="C15" t="s">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="8" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="C16" t="s">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="8" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
       <c r="D17" s="10" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
       <c r="D18" s="10" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+      <c r="A21" s="5">
         <v>0</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="7" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="A22" s="5">
         <v>1</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+      <c r="A23" s="5">
         <v>2</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="5" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+      <c r="A24" s="5">
         <v>3</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="5" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+      <c r="A25" s="5">
         <v>4</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="5" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+      <c r="A26" s="5">
         <v>5</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="5" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+      <c r="A27" s="5">
         <v>6</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="5" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+      <c r="A28" s="5">
         <v>7</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="5" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+      <c r="A29" s="5">
         <v>8</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="5" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="8" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+    </row>
+    <row r="33" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="D33" s="15"/>
+      <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="7" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
       <c r="D35" s="11" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D36" t="s">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C37" t="s">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="8" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+    </row>
+    <row r="40" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C40" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="D40" s="15"/>
+      <c r="D40" s="9"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="C41" s="6"/>
+      <c r="D41" s="7" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C42" t="s">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="8" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C43" t="s">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+    </row>
+    <row r="45" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C45" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="D45" s="15"/>
+      <c r="D45" s="9"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="C46" s="6"/>
+      <c r="D46" s="7" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C47" t="s">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="8" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C48" t="s">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="8" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D49" t="s">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="51" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+    </row>
+    <row r="51" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="C51" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="D51" s="15"/>
+      <c r="D51" s="9"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
+      <c r="A52" s="5">
         <v>0</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="D52" s="7" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
+      <c r="A53" s="5">
         <v>1</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="6" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
+      <c r="A54" s="5">
         <v>2</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="6" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
+      <c r="A55" s="5">
         <v>3</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="6" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
+      <c r="A56" s="5">
         <v>4</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="6" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="6" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
+      <c r="A58" s="5">
         <v>7</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="6" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D59" s="2" t="s">
+      <c r="A59" s="6"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="12" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C60" t="s">
+      <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="8" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C61" t="s">
+      <c r="A61" s="6"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="9" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="6"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+    </row>
+    <row r="63" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C63" s="15" t="s">
+      <c r="C63" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="D63" s="15"/>
+      <c r="D63" s="9"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="3">
+      <c r="A64" s="5">
         <v>0</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="D64" s="6" t="s">
+      <c r="D64" s="7" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="3">
+      <c r="A65" s="5">
         <v>1</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="6" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="3">
+      <c r="A66" s="5">
         <v>2</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="6" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="5" t="s">
         <v>169</v>
       </c>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="3">
+      <c r="A68" s="5">
         <v>7</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="6" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="3">
+      <c r="A69" s="5">
         <v>8</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="6" t="s">
         <v>180</v>
       </c>
+      <c r="D69" s="6"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="3">
+      <c r="A70" s="5">
         <v>9</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="6" t="s">
         <v>181</v>
       </c>
+      <c r="D70" s="6"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="3">
+      <c r="A71" s="5">
         <v>10</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="D71" s="12" t="s">
+      <c r="D71" s="13" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="3">
-        <v>11</v>
-      </c>
-      <c r="B72" t="s">
+      <c r="A72" s="5">
+        <v>11</v>
+      </c>
+      <c r="B72" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="6" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="3">
+      <c r="A73" s="5">
         <v>12</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="6" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="3">
+      <c r="A74" s="5">
         <v>13</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="6" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="3">
+      <c r="A75" s="5">
         <v>14</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="6" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="3">
+      <c r="A76" s="5">
         <v>15</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="6" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C77" t="s">
+      <c r="A77" s="6"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D77" s="8" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C78" t="s">
+      <c r="A78" s="6"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D78" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="9" t="s">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="6"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+    </row>
+    <row r="80" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B80" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C80" s="15" t="s">
+      <c r="C80" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="D80" s="15"/>
+      <c r="D80" s="9"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
+      <c r="A81" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="D81" s="6" t="s">
+      <c r="D81" s="7" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="A82" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="D82" s="13" t="s">
+      <c r="D82" s="14" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C83" t="s">
+      <c r="A83" s="6"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D83" s="8" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C84" t="s">
+      <c r="A84" s="6"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D84" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="86" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="9" t="s">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="6"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+    </row>
+    <row r="86" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B86" s="8" t="s">
+      <c r="B86" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C86" s="15" t="s">
+      <c r="C86" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="D86" s="15"/>
+      <c r="D86" s="9"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="3">
+      <c r="A87" s="5">
         <v>0</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="D87" s="6" t="s">
+      <c r="D87" s="7" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="3">
+      <c r="A88" s="5">
         <v>1</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="D88" s="6" t="s">
+      <c r="D88" s="7" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="3">
+      <c r="A89" s="5">
         <v>2</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="D89" s="6" t="s">
+      <c r="D89" s="7" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="3">
+      <c r="A90" s="5">
         <v>3</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="D90" s="6" t="s">
+      <c r="D90" s="7" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="3">
+      <c r="A91" s="5">
         <v>4</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="D91" s="6" t="s">
+      <c r="D91" s="7" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="3">
+      <c r="A92" s="5">
         <v>5</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="D92" s="6" t="s">
+      <c r="D92" s="7" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="3">
+      <c r="A93" s="5">
         <v>6</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C93" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="D93" s="6" t="s">
+      <c r="D93" s="7" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="3">
+      <c r="A94" s="5">
         <v>7</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="D94" s="6" t="s">
+      <c r="D94" s="7" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="3">
+      <c r="A95" s="5">
         <v>8</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="D95" s="6" t="s">
+      <c r="D95" s="7" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="3">
+      <c r="A96" s="5">
         <v>9</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="D96" s="6" t="s">
+      <c r="D96" s="7" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="3">
+      <c r="A97" s="5">
         <v>10</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="D97" s="6" t="s">
+      <c r="D97" s="7" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C98" t="s">
+      <c r="A98" s="6"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D98" s="8" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C99" t="s">
+      <c r="A99" s="6"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="D99" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="101" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="9" t="s">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="6"/>
+      <c r="B100" s="6"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+    </row>
+    <row r="101" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B101" s="8" t="s">
+      <c r="B101" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C101" s="15" t="s">
+      <c r="C101" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="D101" s="15"/>
+      <c r="D101" s="9"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="3">
+      <c r="A102" s="5">
         <v>0</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="D102" s="6" t="s">
+      <c r="D102" s="7" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="3">
+      <c r="A103" s="5">
         <v>1</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="D103" s="6" t="s">
+      <c r="D103" s="7" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="3">
+      <c r="A104" s="5">
         <v>2</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="D104" s="6" t="s">
+      <c r="D104" s="7" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="3">
+      <c r="A105" s="5">
         <v>3</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="D105" s="6" t="s">
+      <c r="D105" s="7" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="3">
+      <c r="A106" s="5">
         <v>4</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="D106" s="6" t="s">
+      <c r="D106" s="7" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="3">
+      <c r="A107" s="5">
         <v>5</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="D107" s="6" t="s">
+      <c r="D107" s="7" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="3">
+      <c r="A108" s="5">
         <v>6</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="C108" s="14" t="s">
+      <c r="C108" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="D108" s="6" t="s">
+      <c r="D108" s="7" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="3">
+      <c r="A109" s="5">
         <v>7</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="D109" s="6" t="s">
+      <c r="D109" s="7" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="3">
+      <c r="A110" s="5">
         <v>8</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="D110" s="6" t="s">
+      <c r="D110" s="7" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="3">
+      <c r="A111" s="5">
         <v>9</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="D111" s="6" t="s">
+      <c r="D111" s="7" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="3">
+      <c r="A112" s="5">
         <v>10</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="D112" s="6" t="s">
+      <c r="D112" s="7" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C113" t="s">
+      <c r="A113" s="6"/>
+      <c r="B113" s="6"/>
+      <c r="C113" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D113" s="1" t="s">
+      <c r="D113" s="8" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C114" t="s">
+      <c r="A114" s="6"/>
+      <c r="B114" s="6"/>
+      <c r="C114" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="D114" s="1" t="s">
+      <c r="D114" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="116" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="9" t="s">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="6"/>
+      <c r="B115" s="6"/>
+      <c r="C115" s="6"/>
+      <c r="D115" s="6"/>
+    </row>
+    <row r="116" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B116" s="8" t="s">
+      <c r="B116" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C116" s="15" t="s">
+      <c r="C116" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="D116" s="15"/>
+      <c r="D116" s="9"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="3">
+      <c r="A117" s="5">
         <v>0</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="D117" s="6" t="s">
+      <c r="D117" s="7" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="3">
+      <c r="A118" s="5">
         <v>1</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="D118" s="6" t="s">
+      <c r="D118" s="7" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="3">
+      <c r="A119" s="5">
         <v>2</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="D119" s="6" t="s">
+      <c r="D119" s="7" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="3">
+      <c r="A120" s="5">
         <v>3</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="D120" s="6" t="s">
+      <c r="D120" s="7" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="3">
+      <c r="A121" s="5">
         <v>4</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="D121" s="6" t="s">
+      <c r="D121" s="7" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="3">
+      <c r="A122" s="5">
         <v>5</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C122" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="D122" s="6" t="s">
+      <c r="D122" s="7" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="3">
+      <c r="A123" s="5">
         <v>6</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="C123" s="14" t="s">
+      <c r="C123" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="D123" s="6" t="s">
+      <c r="D123" s="7" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="3">
+      <c r="A124" s="5">
         <v>7</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C124" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="D124" s="6" t="s">
+      <c r="D124" s="7" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="3">
+      <c r="A125" s="5">
         <v>8</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C125" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="D125" s="6" t="s">
+      <c r="D125" s="7" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="3">
+      <c r="A126" s="5">
         <v>9</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="D126" s="6" t="s">
+      <c r="D126" s="7" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="3">
+      <c r="A127" s="5">
         <v>10</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C127" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="D127" s="6" t="s">
+      <c r="D127" s="7" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C128" t="s">
+      <c r="A128" s="6"/>
+      <c r="B128" s="6"/>
+      <c r="C128" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D128" s="1" t="s">
+      <c r="D128" s="8" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C129" t="s">
+      <c r="A129" s="6"/>
+      <c r="B129" s="6"/>
+      <c r="C129" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="D129" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="131" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="9" t="s">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="6"/>
+      <c r="B130" s="6"/>
+      <c r="C130" s="6"/>
+      <c r="D130" s="6"/>
+    </row>
+    <row r="131" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B131" s="8" t="s">
+      <c r="B131" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C131" s="15" t="s">
+      <c r="C131" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="D131" s="15"/>
+      <c r="D131" s="9"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="3">
+      <c r="A132" s="5">
         <v>0</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="D132" s="6" t="s">
+      <c r="D132" s="7" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="3">
+      <c r="A133" s="5">
         <v>1</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C133" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="D133" s="6" t="s">
+      <c r="D133" s="7" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="3">
+      <c r="A134" s="5">
         <v>2</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C134" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="D134" s="6" t="s">
+      <c r="D134" s="7" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="3">
+      <c r="A135" s="5">
         <v>3</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="D135" s="6" t="s">
+      <c r="D135" s="7" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="3">
+      <c r="A136" s="5">
         <v>4</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C136" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="D136" s="6" t="s">
+      <c r="D136" s="7" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="3">
+      <c r="A137" s="5">
         <v>5</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C137" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="D137" s="6" t="s">
+      <c r="D137" s="7" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="3">
+      <c r="A138" s="5">
         <v>6</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="C138" s="14" t="s">
+      <c r="C138" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="D138" s="6" t="s">
+      <c r="D138" s="7" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="3">
+      <c r="A139" s="5">
         <v>7</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C139" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="D139" s="6" t="s">
+      <c r="D139" s="7" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="3">
+      <c r="A140" s="5">
         <v>8</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C140" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="D140" s="6" t="s">
+      <c r="D140" s="7" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="3">
+      <c r="A141" s="5">
         <v>9</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C141" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="D141" s="6" t="s">
+      <c r="D141" s="7" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="3">
+      <c r="A142" s="5">
         <v>10</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C142" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="D142" s="6" t="s">
+      <c r="D142" s="7" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C143" t="s">
+      <c r="A143" s="6"/>
+      <c r="B143" s="6"/>
+      <c r="C143" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D143" s="1" t="s">
+      <c r="D143" s="8" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C144" t="s">
+      <c r="A144" s="6"/>
+      <c r="B144" s="6"/>
+      <c r="C144" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="D144" s="1" t="s">
+      <c r="D144" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="146" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="9" t="s">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="6"/>
+      <c r="B145" s="6"/>
+      <c r="C145" s="6"/>
+      <c r="D145" s="6"/>
+    </row>
+    <row r="146" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="B146" s="8" t="s">
+      <c r="B146" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C146" s="15" t="s">
+      <c r="C146" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="D146" s="15"/>
+      <c r="D146" s="9"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="3">
+      <c r="A147" s="5">
         <v>0</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C147" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="D147" s="6" t="s">
+      <c r="D147" s="7" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="3">
+      <c r="A148" s="5">
         <v>1</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C148" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="D148" s="6" t="s">
+      <c r="D148" s="7" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="3">
+      <c r="A149" s="5">
         <v>2</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="D149" t="s">
+      <c r="C149" s="6"/>
+      <c r="D149" s="6" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C150" t="s">
+      <c r="A150" s="6"/>
+      <c r="B150" s="6"/>
+      <c r="C150" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D150" s="1" t="s">
+      <c r="D150" s="8" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C151" t="s">
+      <c r="A151" s="6"/>
+      <c r="B151" s="6"/>
+      <c r="C151" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="D151" s="1" t="s">
+      <c r="D151" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="153" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="9" t="s">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="6"/>
+      <c r="B152" s="6"/>
+      <c r="C152" s="6"/>
+      <c r="D152" s="6"/>
+    </row>
+    <row r="153" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="B153" s="8" t="s">
+      <c r="B153" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C153" s="15" t="s">
+      <c r="C153" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="D153" s="15"/>
+      <c r="D153" s="9"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="3">
+      <c r="A154" s="5">
         <v>0</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B154" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C154" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="D154" s="6" t="s">
+      <c r="D154" s="7" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="3">
+      <c r="A155" s="5">
         <v>1</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C155" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="D155" t="s">
+      <c r="D155" s="6" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="3">
+      <c r="A156" s="5">
         <v>2</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B156" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C156" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="D156" t="s">
+      <c r="D156" s="6" t="s">
         <v>286</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C51:D51"/>
     <mergeCell ref="C116:D116"/>
     <mergeCell ref="C131:D131"/>
     <mergeCell ref="C146:D146"/>
@@ -3875,13 +4108,8 @@
     <mergeCell ref="C80:D80"/>
     <mergeCell ref="C86:D86"/>
     <mergeCell ref="C101:D101"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C51:D51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="8" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SVD_Files/UART.xlsx
+++ b/SVD_Files/UART.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="328">
   <si>
     <t>Addr Shift</t>
   </si>
@@ -67,12 +67,6 @@
     <t>RO</t>
   </si>
   <si>
-    <t>Status Register</t>
-  </si>
-  <si>
-    <t>Clock Prescale Register</t>
-  </si>
-  <si>
     <t>IMSC</t>
   </si>
   <si>
@@ -106,9 +100,6 @@
     <t>WO</t>
   </si>
   <si>
-    <t>Interrupt Clear Register</t>
-  </si>
-  <si>
     <t>0x24</t>
   </si>
   <si>
@@ -272,9 +263,6 @@
   </si>
   <si>
     <t>Overrun Error</t>
-  </si>
-  <si>
-    <t>0x00000FFF</t>
   </si>
   <si>
     <t>1: Error, new data received but FIFO is full</t>
@@ -1013,12 +1001,166 @@
   <si>
     <t>0: disabled, 1: Fixed - inversed of EPS value</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FIFO_Len: 16  / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Esila: 32</t>
+    </r>
+  </si>
+  <si>
+    <t>Esila</t>
+  </si>
+  <si>
+    <t>0..8</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0x00000FFF </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/ 0x00001FFF</t>
+    </r>
+  </si>
+  <si>
+    <t>9bit sel</t>
+  </si>
+  <si>
+    <t>0: len by WLEN, 1: 9bit</t>
+  </si>
+  <si>
+    <t>Len9_En</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0x000000FF </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/ 0x000001FF</t>
+    </r>
+  </si>
+  <si>
+    <t>FIFO_TX empty</t>
+  </si>
+  <si>
+    <t>FIFO_RX not Empty</t>
+  </si>
+  <si>
+    <t>TX data in shift register</t>
+  </si>
+  <si>
+    <t>TBSYRIS</t>
+  </si>
+  <si>
+    <t>TFERIS</t>
+  </si>
+  <si>
+    <t>RNERIS</t>
+  </si>
+  <si>
+    <t>RNEMIS</t>
+  </si>
+  <si>
+    <t>TFEMIS</t>
+  </si>
+  <si>
+    <t>TBSYMIS</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0x000007FF </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/ 0x00003FFF</t>
+    </r>
+  </si>
+  <si>
+    <t>1986VE8</t>
+  </si>
+  <si>
+    <t>1923VK014</t>
+  </si>
+  <si>
+    <t>0x4008D000</t>
+  </si>
+  <si>
+    <t>0x4008E000</t>
+  </si>
+  <si>
+    <t>0x4008F000</t>
+  </si>
+  <si>
+    <t>0x40090000</t>
+  </si>
+  <si>
+    <t>0x40099000</t>
+  </si>
+  <si>
+    <t>0x4009A000</t>
+  </si>
+  <si>
+    <t>Interrupt FIFO Level select</t>
+  </si>
+  <si>
+    <t>IrDA Low-Power register</t>
+  </si>
+  <si>
+    <t>Integer Baud Rate register</t>
+  </si>
+  <si>
+    <t>Fractional Baud Rate register</t>
+  </si>
+  <si>
+    <t>Control Line register</t>
+  </si>
+  <si>
+    <t>Control register</t>
+  </si>
+  <si>
+    <t>IRQ Clear register</t>
+  </si>
+  <si>
+    <t>Test control register</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1060,6 +1202,30 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1110,7 +1276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1128,9 +1294,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1143,6 +1306,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1423,10 +1604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1442,31 +1623,31 @@
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="8"/>
@@ -1492,29 +1673,29 @@
         <v>13</v>
       </c>
       <c r="C3" s="6"/>
-      <c r="D3" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="16" t="s">
+      <c r="D3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="15" t="s">
         <v>11</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1522,533 +1703,533 @@
         <v>12</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C4" s="5"/>
-      <c r="D4" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="16" t="s">
+      <c r="D4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="15" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="16" t="s">
         <v>33</v>
       </c>
+      <c r="B5" s="15" t="s">
+        <v>30</v>
+      </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="16" t="s">
+      <c r="D6" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="15" t="s">
         <v>11</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>33</v>
+        <v>20</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>30</v>
       </c>
       <c r="C7" s="6"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
       <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" s="16" t="s">
+      <c r="D8" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="15" t="s">
         <v>11</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>15</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="J9" s="16" t="s">
+      <c r="D9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="15" t="s">
         <v>11</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>16</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C10" s="6"/>
-      <c r="D10" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="J10" s="16" t="s">
+      <c r="D10" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="15" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>18</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C11" s="6"/>
-      <c r="D11" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="J11" s="16" t="s">
+      <c r="D11" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="15" t="s">
         <v>11</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>21</v>
+        <v>324</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C12" s="6"/>
-      <c r="D12" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="J12" s="16" t="s">
+      <c r="D12" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="15" t="s">
         <v>11</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>24</v>
+        <v>325</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C13" s="6"/>
-      <c r="D13" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="J13" s="16" t="s">
+      <c r="D13" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" s="15" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>28</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C14" s="6"/>
-      <c r="D14" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="J14" s="16" t="s">
+      <c r="D14" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="15" t="s">
         <v>11</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="J15" s="16" t="s">
+      <c r="D15" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" s="15" t="s">
         <v>11</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="J16" s="16" t="s">
+      <c r="D16" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" s="15" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="I17" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="J17" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" s="15" t="s">
         <v>11</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>31</v>
+        <v>326</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C18" s="6"/>
-      <c r="D18" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="J18" s="16" t="s">
+      <c r="D18" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="15" t="s">
         <v>11</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>33</v>
+        <v>51</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>30</v>
       </c>
       <c r="C19" s="6"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
       <c r="K19" s="5"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C20" s="6"/>
-      <c r="D20" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="H20" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="I20" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="J20" s="16" t="s">
+      <c r="D20" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20" s="15" t="s">
         <v>11</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>31</v>
+        <v>327</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
       <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -2065,8 +2246,8 @@
       <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
-        <v>32</v>
+      <c r="A23" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -2082,118 +2263,193 @@
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="H24" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="I24" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="J24" s="17" t="s">
-        <v>34</v>
+        <v>57</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="J24" s="16" t="s">
+        <v>31</v>
       </c>
       <c r="K24" s="5"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H25" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="I25" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="J25" s="17" t="s">
-        <v>65</v>
+        <v>58</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="J25" s="16" t="s">
+        <v>62</v>
       </c>
       <c r="K25" s="5"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C26" s="6"/>
-      <c r="D26" s="16" t="s">
-        <v>33</v>
+      <c r="D26" s="15" t="s">
+        <v>30</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G26" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="H26" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="I26" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="J26" s="16" t="s">
-        <v>33</v>
+        <v>59</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J26" s="15" t="s">
+        <v>30</v>
       </c>
       <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C27" s="6"/>
-      <c r="D27" s="16" t="s">
-        <v>33</v>
+      <c r="D27" s="15" t="s">
+        <v>30</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G27" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="I27" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="J27" s="16" t="s">
-        <v>33</v>
+        <v>60</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J27" s="15" t="s">
+        <v>30</v>
       </c>
       <c r="K27" s="5"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>317</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2203,19 +2459,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D156"/>
+  <dimension ref="A1:F166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="C103" sqref="C103"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
     <col min="3" max="3" width="25.28515625" customWidth="1"/>
     <col min="4" max="4" width="59.140625" customWidth="1"/>
+    <col min="5" max="5" width="0.140625" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
@@ -2223,1891 +2483,2048 @@
         <v>13</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="F1" s="18" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="5"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>8</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="F3" s="19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>9</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="F4" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>10</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>82</v>
-      </c>
       <c r="D5" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="F5" s="19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>11</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="D6" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="F6" s="19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
-        <v>84</v>
+        <v>297</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="F10" s="18"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>0</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>1</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>82</v>
-      </c>
       <c r="D13" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>3</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="D14" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
-      <c r="D17" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
-      <c r="D18" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F20" s="18"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>0</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>1</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>2</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>3</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>4</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C25" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>5</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>6</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>7</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>8</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
     </row>
-    <row r="33" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D33" s="9"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D33" s="17"/>
+      <c r="F33" s="18"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
-      <c r="D35" s="11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D35" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
     </row>
-    <row r="40" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="D40" s="9"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="D40" s="17"/>
+      <c r="F40" s="18"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
     </row>
-    <row r="45" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="D45" s="9"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="D45" s="17"/>
+      <c r="F45" s="18"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
     </row>
-    <row r="51" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="D51" s="9"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="D51" s="17"/>
+      <c r="F51" s="18"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>0</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>1</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>2</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>3</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>4</v>
       </c>
       <c r="B56" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D57" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C56" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>7</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="6"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="12" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="24">
+        <v>8</v>
+      </c>
+      <c r="B59" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="C59" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="D59" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="E59" s="23"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
-      <c r="C60" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C60" s="6"/>
+      <c r="D60" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6" t="s">
-        <v>127</v>
+        <v>63</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-    </row>
-    <row r="63" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="D63" s="9"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="5">
-        <v>0</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>164</v>
-      </c>
+      <c r="C62" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="6"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+    </row>
+    <row r="64" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C64" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="D64" s="17"/>
+      <c r="F64" s="18"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>164</v>
+        <v>159</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
+        <v>1</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="5">
         <v>2</v>
       </c>
-      <c r="B66" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="D66" s="6" t="s">
+      <c r="B67" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C67" s="6" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
+      <c r="D67" s="6" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="5">
-        <v>7</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>164</v>
-      </c>
+      <c r="A68" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="D69" s="6"/>
+        <v>175</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D70" s="6"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="D71" s="13" t="s">
-        <v>183</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="D71" s="6"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>185</v>
+        <v>178</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
+        <v>14</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="5">
         <v>15</v>
       </c>
-      <c r="B76" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="6"/>
-      <c r="B77" s="6"/>
+      <c r="B77" s="6" t="s">
+        <v>174</v>
+      </c>
       <c r="C77" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D77" s="8" t="s">
-        <v>67</v>
+        <v>186</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="6" t="s">
-        <v>193</v>
+        <v>63</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-    </row>
-    <row r="80" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="D80" s="9"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
+      <c r="C79" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="6"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+    </row>
+    <row r="81" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C81" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D81" s="17"/>
+      <c r="F81" s="18"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C83" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="B81" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="D82" s="14" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="6"/>
-      <c r="B83" s="6"/>
-      <c r="C83" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D83" s="13" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6" t="s">
-        <v>136</v>
+        <v>63</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-    </row>
-    <row r="86" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="3" t="s">
+      <c r="C85" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="6"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+    </row>
+    <row r="87" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C87" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="D87" s="17"/>
+      <c r="F87" s="18"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="5">
+        <v>0</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="5">
+        <v>1</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="5">
+        <v>2</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="5">
+        <v>3</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="5">
+        <v>4</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="5">
+        <v>5</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="5">
+        <v>6</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="5">
+        <v>7</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="5">
+        <v>8</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="5">
+        <v>9</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="5">
+        <v>10</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="21">
+        <v>11</v>
+      </c>
+      <c r="B99" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="C99" s="22" t="s">
+        <v>303</v>
+      </c>
+      <c r="D99" s="7"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="21">
+        <v>12</v>
+      </c>
+      <c r="B100" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="C100" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="D100" s="7"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="21">
+        <v>13</v>
+      </c>
+      <c r="B101" s="22" t="s">
+        <v>305</v>
+      </c>
+      <c r="C101" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="D101" s="7"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="6"/>
+      <c r="B102" s="6"/>
+      <c r="C102" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="6"/>
+      <c r="B103" s="6"/>
+      <c r="C103" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="6"/>
+      <c r="B104" s="6"/>
+      <c r="C104" s="6"/>
+      <c r="D104" s="6"/>
+    </row>
+    <row r="105" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C105" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="D105" s="17"/>
+      <c r="F105" s="18"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="5">
+        <v>0</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="5">
+        <v>1</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="5">
+        <v>2</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="5">
+        <v>3</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="5">
+        <v>4</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="5">
+        <v>5</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="5">
+        <v>6</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C112" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="5">
+        <v>7</v>
+      </c>
+      <c r="B113" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="B86" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D86" s="9"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="5">
+      <c r="C113" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="5">
+        <v>8</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="5">
+        <v>9</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="5">
+        <v>10</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="21">
+        <v>11</v>
+      </c>
+      <c r="B117" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="C117" s="22" t="s">
+        <v>303</v>
+      </c>
+      <c r="D117" s="7"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="21">
+        <v>12</v>
+      </c>
+      <c r="B118" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="C118" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="D118" s="7"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="21">
+        <v>13</v>
+      </c>
+      <c r="B119" s="22" t="s">
+        <v>305</v>
+      </c>
+      <c r="C119" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="D119" s="7"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="6"/>
+      <c r="B120" s="6"/>
+      <c r="C120" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="6"/>
+      <c r="B121" s="6"/>
+      <c r="C121" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="6"/>
+      <c r="B122" s="6"/>
+      <c r="C122" s="6"/>
+      <c r="D122" s="6"/>
+    </row>
+    <row r="123" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C123" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="D123" s="17"/>
+      <c r="F123" s="18"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="5">
         <v>0</v>
       </c>
-      <c r="B87" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="C87" s="6" t="s">
+      <c r="B124" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D124" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="5">
+        <v>1</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="5">
+        <v>2</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D126" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="5">
+        <v>3</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D127" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="5">
+        <v>4</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="C128" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="D87" s="7" t="s">
+      <c r="D128" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="5">
+        <v>5</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D129" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="5">
+        <v>6</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C130" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="D130" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="5">
+        <v>7</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D131" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="5">
+        <v>8</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D132" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="5">
+        <v>9</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D133" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="5">
+        <v>10</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C134" s="6" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="5">
+      <c r="D134" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="21">
+        <v>11</v>
+      </c>
+      <c r="B135" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="C135" s="22" t="s">
+        <v>303</v>
+      </c>
+      <c r="D135" s="7"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="21">
+        <v>12</v>
+      </c>
+      <c r="B136" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="C136" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="D136" s="7"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="21">
+        <v>13</v>
+      </c>
+      <c r="B137" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="C137" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="D137" s="7"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="6"/>
+      <c r="B138" s="6"/>
+      <c r="C138" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="6"/>
+      <c r="B139" s="6"/>
+      <c r="C139" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="D139" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="6"/>
+      <c r="B140" s="6"/>
+      <c r="C140" s="6"/>
+      <c r="D140" s="6"/>
+    </row>
+    <row r="141" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C141" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="D141" s="17"/>
+      <c r="F141" s="18"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="5">
+        <v>0</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D142" s="7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="5">
         <v>1</v>
       </c>
-      <c r="B88" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="C88" s="6" t="s">
+      <c r="B143" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D143" s="7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="5">
+        <v>2</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D144" s="7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="5">
+        <v>3</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D145" s="7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="5">
+        <v>4</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D146" s="7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="5">
+        <v>5</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="C147" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="D88" s="7" t="s">
+      <c r="D147" s="7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="5">
+        <v>6</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C148" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="D148" s="7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="5">
+        <v>7</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D149" s="7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="5">
+        <v>8</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D150" s="7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="5">
+        <v>9</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D151" s="7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="5">
+        <v>10</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="C152" s="6" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="5">
+      <c r="D152" s="7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="6"/>
+      <c r="B153" s="6"/>
+      <c r="C153" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D153" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="6"/>
+      <c r="B154" s="6"/>
+      <c r="C154" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D154" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="6"/>
+      <c r="B155" s="6"/>
+      <c r="C155" s="6"/>
+      <c r="D155" s="6"/>
+    </row>
+    <row r="156" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C156" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="D156" s="17"/>
+      <c r="F156" s="18"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="5">
+        <v>0</v>
+      </c>
+      <c r="B157" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="D157" s="7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="5">
+        <v>1</v>
+      </c>
+      <c r="B158" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D158" s="7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="5">
         <v>2</v>
       </c>
-      <c r="B89" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="D89" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="5">
-        <v>3</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="D90" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="5">
-        <v>4</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="5">
-        <v>5</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="5">
-        <v>6</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="C93" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="5">
-        <v>7</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="D94" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="5">
-        <v>8</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="D95" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="5">
-        <v>9</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="D96" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="5">
-        <v>10</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="D97" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="6"/>
-      <c r="B98" s="6"/>
-      <c r="C98" s="6" t="s">
+      <c r="B159" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C159" s="6"/>
+      <c r="D159" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="6"/>
+      <c r="B160" s="6"/>
+      <c r="C160" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D160" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="6"/>
+      <c r="B161" s="6"/>
+      <c r="C161" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="D161" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D98" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="6"/>
-      <c r="B99" s="6"/>
-      <c r="C99" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="D99" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="6"/>
-      <c r="B100" s="6"/>
-      <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
-    </row>
-    <row r="101" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C101" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="D101" s="9"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="5">
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="6"/>
+      <c r="B162" s="6"/>
+      <c r="C162" s="6"/>
+      <c r="D162" s="6"/>
+    </row>
+    <row r="163" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C163" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="D163" s="17"/>
+      <c r="F163" s="18"/>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="5">
         <v>0</v>
       </c>
-      <c r="B102" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="D102" s="7" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="5">
+      <c r="B164" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="D164" s="7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" s="5">
         <v>1</v>
       </c>
-      <c r="B103" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="D103" s="7" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="5">
+      <c r="B165" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="D165" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" s="5">
         <v>2</v>
       </c>
-      <c r="B104" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="D104" s="7" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="5">
-        <v>3</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="D105" s="7" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="5">
-        <v>4</v>
-      </c>
-      <c r="B106" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="D106" s="7" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="5">
-        <v>5</v>
-      </c>
-      <c r="B107" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="C107" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="D107" s="7" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="5">
-        <v>6</v>
-      </c>
-      <c r="B108" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="C108" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="D108" s="7" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="5">
-        <v>7</v>
-      </c>
-      <c r="B109" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="C109" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="D109" s="7" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="5">
-        <v>8</v>
-      </c>
-      <c r="B110" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="D110" s="7" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="5">
-        <v>9</v>
-      </c>
-      <c r="B111" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="C111" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="D111" s="7" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="5">
-        <v>10</v>
-      </c>
-      <c r="B112" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="C112" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="D112" s="7" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="6"/>
-      <c r="B113" s="6"/>
-      <c r="C113" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D113" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="6"/>
-      <c r="B114" s="6"/>
-      <c r="C114" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="D114" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="6"/>
-      <c r="B115" s="6"/>
-      <c r="C115" s="6"/>
-      <c r="D115" s="6"/>
-    </row>
-    <row r="116" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C116" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="D116" s="9"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="5">
-        <v>0</v>
-      </c>
-      <c r="B117" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="C117" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="D117" s="7" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="5">
-        <v>1</v>
-      </c>
-      <c r="B118" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="C118" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="D118" s="7" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="5">
-        <v>2</v>
-      </c>
-      <c r="B119" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="C119" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="D119" s="7" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="5">
-        <v>3</v>
-      </c>
-      <c r="B120" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="D120" s="7" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="5">
-        <v>4</v>
-      </c>
-      <c r="B121" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="C121" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="D121" s="7" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="5">
-        <v>5</v>
-      </c>
-      <c r="B122" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="C122" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="D122" s="7" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="5">
-        <v>6</v>
-      </c>
-      <c r="B123" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="C123" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="D123" s="7" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="5">
-        <v>7</v>
-      </c>
-      <c r="B124" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="C124" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="D124" s="7" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="5">
-        <v>8</v>
-      </c>
-      <c r="B125" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="C125" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="D125" s="7" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="5">
-        <v>9</v>
-      </c>
-      <c r="B126" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C126" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="D126" s="7" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="5">
-        <v>10</v>
-      </c>
-      <c r="B127" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="C127" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="D127" s="7" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="6"/>
-      <c r="B128" s="6"/>
-      <c r="C128" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D128" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="6"/>
-      <c r="B129" s="6"/>
-      <c r="C129" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="D129" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="6"/>
-      <c r="B130" s="6"/>
-      <c r="C130" s="6"/>
-      <c r="D130" s="6"/>
-    </row>
-    <row r="131" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C131" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="D131" s="9"/>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="5">
-        <v>0</v>
-      </c>
-      <c r="B132" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="C132" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="D132" s="7" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="5">
-        <v>1</v>
-      </c>
-      <c r="B133" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="C133" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="D133" s="7" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="5">
-        <v>2</v>
-      </c>
-      <c r="B134" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="C134" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="D134" s="7" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="5">
-        <v>3</v>
-      </c>
-      <c r="B135" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="C135" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="D135" s="7" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="5">
-        <v>4</v>
-      </c>
-      <c r="B136" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="C136" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="D136" s="7" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="5">
-        <v>5</v>
-      </c>
-      <c r="B137" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="C137" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="D137" s="7" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="5">
-        <v>6</v>
-      </c>
-      <c r="B138" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="C138" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="D138" s="7" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="5">
-        <v>7</v>
-      </c>
-      <c r="B139" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="C139" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="D139" s="7" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="5">
-        <v>8</v>
-      </c>
-      <c r="B140" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="C140" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="D140" s="7" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="5">
-        <v>9</v>
-      </c>
-      <c r="B141" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="C141" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="D141" s="7" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="5">
-        <v>10</v>
-      </c>
-      <c r="B142" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="C142" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="D142" s="7" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="6"/>
-      <c r="B143" s="6"/>
-      <c r="C143" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D143" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="6"/>
-      <c r="B144" s="6"/>
-      <c r="C144" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="D144" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="6"/>
-      <c r="B145" s="6"/>
-      <c r="C145" s="6"/>
-      <c r="D145" s="6"/>
-    </row>
-    <row r="146" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="B146" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C146" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="D146" s="9"/>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="5">
-        <v>0</v>
-      </c>
-      <c r="B147" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="C147" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="D147" s="7" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="5">
-        <v>1</v>
-      </c>
-      <c r="B148" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="C148" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="D148" s="7" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="5">
-        <v>2</v>
-      </c>
-      <c r="B149" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="C149" s="6"/>
-      <c r="D149" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="6"/>
-      <c r="B150" s="6"/>
-      <c r="C150" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D150" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="6"/>
-      <c r="B151" s="6"/>
-      <c r="C151" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="D151" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="6"/>
-      <c r="B152" s="6"/>
-      <c r="C152" s="6"/>
-      <c r="D152" s="6"/>
-    </row>
-    <row r="153" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="B153" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C153" s="9" t="s">
+      <c r="B166" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="D153" s="9"/>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="5">
-        <v>0</v>
-      </c>
-      <c r="B154" s="6" t="s">
+      <c r="C166" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="D166" s="6" t="s">
         <v>282</v>
-      </c>
-      <c r="C154" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="D154" s="7" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="5">
-        <v>1</v>
-      </c>
-      <c r="B155" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="C155" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="D155" s="6" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="5">
-        <v>2</v>
-      </c>
-      <c r="B156" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="C156" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="D156" s="6" t="s">
-        <v>286</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="C156:D156"/>
+    <mergeCell ref="C163:D163"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C105:D105"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="C45:D45"/>
     <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C116:D116"/>
-    <mergeCell ref="C131:D131"/>
-    <mergeCell ref="C146:D146"/>
-    <mergeCell ref="C153:D153"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C101:D101"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" orientation="portrait" r:id="rId1"/>

--- a/SVD_Files/UART.xlsx
+++ b/SVD_Files/UART.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="330">
   <si>
     <t>Addr Shift</t>
   </si>
@@ -1002,26 +1002,113 @@
     <t>0: disabled, 1: Fixed - inversed of EPS value</t>
   </si>
   <si>
+    <t>Esila</t>
+  </si>
+  <si>
+    <t>0..8</t>
+  </si>
+  <si>
+    <t>9bit sel</t>
+  </si>
+  <si>
+    <t>0: len by WLEN, 1: 9bit</t>
+  </si>
+  <si>
+    <t>Len9_En</t>
+  </si>
+  <si>
+    <t>FIFO_TX empty</t>
+  </si>
+  <si>
+    <t>FIFO_RX not Empty</t>
+  </si>
+  <si>
+    <t>TX data in shift register</t>
+  </si>
+  <si>
+    <t>TBSYRIS</t>
+  </si>
+  <si>
+    <t>TFERIS</t>
+  </si>
+  <si>
+    <t>RNERIS</t>
+  </si>
+  <si>
+    <t>RNEMIS</t>
+  </si>
+  <si>
+    <t>TFEMIS</t>
+  </si>
+  <si>
+    <t>TBSYMIS</t>
+  </si>
+  <si>
+    <t>1986VE8</t>
+  </si>
+  <si>
+    <t>1923VK014</t>
+  </si>
+  <si>
+    <t>0x4008D000</t>
+  </si>
+  <si>
+    <t>0x4008E000</t>
+  </si>
+  <si>
+    <t>0x4008F000</t>
+  </si>
+  <si>
+    <t>0x40090000</t>
+  </si>
+  <si>
+    <t>0x40099000</t>
+  </si>
+  <si>
+    <t>0x4009A000</t>
+  </si>
+  <si>
+    <t>Interrupt FIFO Level select</t>
+  </si>
+  <si>
+    <t>IrDA Low-Power register</t>
+  </si>
+  <si>
+    <t>Integer Baud Rate register</t>
+  </si>
+  <si>
+    <t>Fractional Baud Rate register</t>
+  </si>
+  <si>
+    <t>Control Line register</t>
+  </si>
+  <si>
+    <t>Control register</t>
+  </si>
+  <si>
+    <t>IRQ Clear register</t>
+  </si>
+  <si>
+    <t>Test control register</t>
+  </si>
+  <si>
+    <t>Color for Esila and 1923DR014</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">FIFO_Len: 16  / </t>
+      <t xml:space="preserve">FIFO_Len: 16 </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF00B050"/>
+        <color rgb="FF0070C0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Esila: 32</t>
+      <t xml:space="preserve"> / Esila: 32</t>
     </r>
-  </si>
-  <si>
-    <t>Esila</t>
-  </si>
-  <si>
-    <t>0..8</t>
   </si>
   <si>
     <r>
@@ -1030,7 +1117,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF00B050"/>
+        <color rgb="FF0070C0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
@@ -1040,22 +1127,13 @@
     </r>
   </si>
   <si>
-    <t>9bit sel</t>
-  </si>
-  <si>
-    <t>0: len by WLEN, 1: 9bit</t>
-  </si>
-  <si>
-    <t>Len9_En</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">0x000000FF </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF00B050"/>
+        <color rgb="FF0070C0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
@@ -1065,40 +1143,13 @@
     </r>
   </si>
   <si>
-    <t>FIFO_TX empty</t>
-  </si>
-  <si>
-    <t>FIFO_RX not Empty</t>
-  </si>
-  <si>
-    <t>TX data in shift register</t>
-  </si>
-  <si>
-    <t>TBSYRIS</t>
-  </si>
-  <si>
-    <t>TFERIS</t>
-  </si>
-  <si>
-    <t>RNERIS</t>
-  </si>
-  <si>
-    <t>RNEMIS</t>
-  </si>
-  <si>
-    <t>TFEMIS</t>
-  </si>
-  <si>
-    <t>TBSYMIS</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">0x000007FF </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF00B050"/>
+        <color rgb="FF0070C0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
@@ -1108,59 +1159,27 @@
     </r>
   </si>
   <si>
-    <t>1986VE8</t>
-  </si>
-  <si>
-    <t>1923VK014</t>
-  </si>
-  <si>
-    <t>0x4008D000</t>
-  </si>
-  <si>
-    <t>0x4008E000</t>
-  </si>
-  <si>
-    <t>0x4008F000</t>
-  </si>
-  <si>
-    <t>0x40090000</t>
-  </si>
-  <si>
-    <t>0x40099000</t>
-  </si>
-  <si>
-    <t>0x4009A000</t>
-  </si>
-  <si>
-    <t>Interrupt FIFO Level select</t>
-  </si>
-  <si>
-    <t>IrDA Low-Power register</t>
-  </si>
-  <si>
-    <t>Integer Baud Rate register</t>
-  </si>
-  <si>
-    <t>Fractional Baud Rate register</t>
-  </si>
-  <si>
-    <t>Control Line register</t>
-  </si>
-  <si>
-    <t>Control register</t>
-  </si>
-  <si>
-    <t>IRQ Clear register</t>
-  </si>
-  <si>
-    <t>Test control register</t>
+    <r>
+      <t>0x000007FF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / 0x00003FFF</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1223,9 +1242,26 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00B050"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1276,7 +1312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1306,24 +1342,31 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1830,7 +1873,7 @@
         <v>11</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1863,7 +1906,7 @@
         <v>11</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1896,7 +1939,7 @@
         <v>11</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1929,7 +1972,7 @@
         <v>11</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1962,7 +2005,7 @@
         <v>11</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1995,7 +2038,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -2133,7 +2176,7 @@
         <v>11</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -2216,7 +2259,7 @@
         <v>11</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -2382,13 +2425,13 @@
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -2397,13 +2440,13 @@
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -2412,13 +2455,13 @@
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
@@ -2433,7 +2476,7 @@
         <v>30</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
@@ -2448,7 +2491,7 @@
         <v>30</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -2459,10 +2502,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F166"/>
+  <dimension ref="A1:F168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C103" sqref="C103"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D141" sqref="D141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2472,1080 +2515,1057 @@
     <col min="3" max="3" width="25.28515625" customWidth="1"/>
     <col min="4" max="4" width="59.140625" customWidth="1"/>
     <col min="5" max="5" width="0.140625" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" style="20" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D1" s="23" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="F1" s="18" t="s">
+      <c r="D3" s="3"/>
+      <c r="F3" s="21" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="F4" s="22" t="s">
         <v>295</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>8</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F3" s="19">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>9</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4" s="19">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F5" s="19">
-        <v>11</v>
+        <v>78</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="22">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>10</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>11</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F8" s="22">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D9" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="D8" s="8" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C12" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="F10" s="18"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>0</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>1</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>74</v>
-      </c>
+      <c r="D12" s="19"/>
+      <c r="F12" s="17"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
+        <v>1</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>2</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
         <v>3</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B16" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C16" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D17" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D18" s="8" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="9" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="D19" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B22" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C22" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="18"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>0</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <v>1</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>113</v>
-      </c>
+      <c r="F22" s="17"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
-        <v>2</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>112</v>
+        <v>0</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>97</v>
+        <v>1</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
+        <v>6</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>7</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
         <v>8</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B31" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C31" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D31" s="5" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-    </row>
-    <row r="33" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="C32" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+    </row>
+    <row r="35" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B35" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C35" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="D33" s="17"/>
-      <c r="F33" s="18"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+      <c r="D35" s="19"/>
+      <c r="F35" s="17"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B36" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C36" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D36" s="7" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
-      <c r="C37" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>64</v>
+      <c r="C37" s="6"/>
+      <c r="D37" s="10" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
-      <c r="C38" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>66</v>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-    </row>
-    <row r="40" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="C39" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+    </row>
+    <row r="42" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B42" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C42" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="D40" s="17"/>
-      <c r="F40" s="18"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+      <c r="D42" s="19"/>
+      <c r="F42" s="17"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B43" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="7" t="s">
+      <c r="C43" s="6"/>
+      <c r="D43" s="7" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-    </row>
-    <row r="45" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+      <c r="C44" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+    </row>
+    <row r="47" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B47" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C47" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="D45" s="17"/>
-      <c r="F45" s="18"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+      <c r="D47" s="19"/>
+      <c r="F47" s="17"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B48" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="7" t="s">
+      <c r="C48" s="6"/>
+      <c r="D48" s="7" t="s">
         <v>130</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6" t="s">
-        <v>133</v>
+      <c r="C49" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-    </row>
-    <row r="51" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
+      <c r="C50" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+    </row>
+    <row r="53" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B53" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="C53" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="D51" s="17"/>
-      <c r="F51" s="18"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="5">
-        <v>0</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="5">
-        <v>1</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>139</v>
-      </c>
+      <c r="D53" s="19"/>
+      <c r="F53" s="17"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>142</v>
+        <v>135</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>285</v>
+        <v>142</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>136</v>
+      <c r="A57" s="5">
+        <v>3</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
+        <v>4</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
         <v>7</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B60" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C60" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="D60" s="6" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="24">
+    <row r="61" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="24">
         <v>8</v>
       </c>
-      <c r="B59" s="25" t="s">
-        <v>300</v>
-      </c>
-      <c r="C59" s="25" t="s">
+      <c r="B61" s="25" t="s">
         <v>298</v>
       </c>
-      <c r="D59" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="E59" s="23"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="6"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="11" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>64</v>
-      </c>
+      <c r="C61" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="D61" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="F61" s="28"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
-      <c r="C62" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>66</v>
+      <c r="C62" s="6"/>
+      <c r="D62" s="11" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-    </row>
-    <row r="64" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
+      <c r="C63" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="6"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="6"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+    </row>
+    <row r="66" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B66" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C64" s="17" t="s">
+      <c r="C66" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="D64" s="17"/>
-      <c r="F64" s="18"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="5">
+      <c r="D66" s="19"/>
+      <c r="F66" s="17"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="5">
         <v>0</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B67" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C67" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="D65" s="7" t="s">
+      <c r="D67" s="7" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="5">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="5">
         <v>1</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B68" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C68" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="D68" s="6" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="5">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="5">
         <v>2</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B69" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="C69" s="6" t="s">
         <v>164</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B68" s="6"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="5">
-        <v>7</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>175</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="5">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="5">
+        <v>7</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="5">
         <v>8</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B72" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="C72" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="D70" s="6"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="5">
+      <c r="D72" s="6"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="5">
         <v>9</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B73" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C71" s="6" t="s">
+      <c r="C73" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="D71" s="6"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="5">
+      <c r="D73" s="6"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="5">
         <v>10</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B74" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C72" s="6" t="s">
+      <c r="C74" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="D72" s="12" t="s">
+      <c r="D74" s="12" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="5">
-        <v>11</v>
-      </c>
-      <c r="B73" s="6" t="s">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="5">
+        <v>11</v>
+      </c>
+      <c r="B75" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C73" s="6" t="s">
+      <c r="C75" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="D73" s="6" t="s">
+      <c r="D75" s="6" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="5">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="5">
         <v>12</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B76" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C74" s="6" t="s">
+      <c r="C76" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="D74" s="6" t="s">
+      <c r="D76" s="6" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="5">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="5">
         <v>13</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B77" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C75" s="6" t="s">
+      <c r="C77" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="D75" s="6" t="s">
+      <c r="D77" s="6" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="5">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="5">
         <v>14</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B78" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C76" s="6" t="s">
+      <c r="C78" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="D76" s="6" t="s">
+      <c r="D78" s="6" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="5">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="5">
         <v>15</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B79" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C77" s="6" t="s">
+      <c r="C79" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="D77" s="6" t="s">
+      <c r="D79" s="6" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="6"/>
-      <c r="B78" s="6"/>
-      <c r="C78" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="6"/>
-      <c r="B79" s="6"/>
-      <c r="C79" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-    </row>
-    <row r="81" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
+      <c r="C80" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="6"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="6"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+    </row>
+    <row r="83" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B83" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C81" s="17" t="s">
+      <c r="C83" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="D81" s="17"/>
-      <c r="F81" s="18"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
+      <c r="D83" s="19"/>
+      <c r="F83" s="17"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B84" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C82" s="6" t="s">
+      <c r="C84" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="D82" s="7" t="s">
+      <c r="D84" s="7" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="6" t="s">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="B85" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C83" s="6" t="s">
+      <c r="C85" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="D83" s="13" t="s">
+      <c r="D85" s="13" t="s">
         <v>292</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="6"/>
-      <c r="B84" s="6"/>
-      <c r="C84" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D84" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="6"/>
-      <c r="B85" s="6"/>
-      <c r="C85" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="D85" s="8" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-    </row>
-    <row r="87" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
+      <c r="C86" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="6"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="6"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+    </row>
+    <row r="89" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B89" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C87" s="17" t="s">
+      <c r="C89" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="D87" s="17"/>
-      <c r="F87" s="18"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="5">
-        <v>0</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="5">
-        <v>1</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="D89" s="7" t="s">
-        <v>214</v>
-      </c>
+      <c r="D89" s="19"/>
+      <c r="F89" s="17"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D90" s="7" t="s">
         <v>214</v>
@@ -3553,13 +3573,13 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D91" s="7" t="s">
         <v>214</v>
@@ -3567,13 +3587,13 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D92" s="7" t="s">
         <v>214</v>
@@ -3581,13 +3601,13 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D93" s="7" t="s">
         <v>214</v>
@@ -3595,27 +3615,27 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="C94" s="11" t="s">
-        <v>219</v>
+        <v>201</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>212</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D95" s="7" t="s">
         <v>214</v>
@@ -3623,27 +3643,27 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>215</v>
+        <v>203</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>219</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D97" s="7" t="s">
         <v>214</v>
@@ -3651,130 +3671,133 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>287</v>
+        <v>215</v>
       </c>
       <c r="D98" s="7" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="21">
-        <v>11</v>
-      </c>
-      <c r="B99" s="22" t="s">
-        <v>307</v>
-      </c>
-      <c r="C99" s="22" t="s">
+      <c r="A99" s="5">
+        <v>9</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="5">
+        <v>10</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="29">
+        <v>11</v>
+      </c>
+      <c r="B101" s="30" t="s">
+        <v>304</v>
+      </c>
+      <c r="C101" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="D101" s="31"/>
+      <c r="F101" s="30"/>
+    </row>
+    <row r="102" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="29">
+        <v>12</v>
+      </c>
+      <c r="B102" s="30" t="s">
         <v>303</v>
       </c>
-      <c r="D99" s="7"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="21">
-        <v>12</v>
-      </c>
-      <c r="B100" s="22" t="s">
-        <v>306</v>
-      </c>
-      <c r="C100" s="22" t="s">
+      <c r="C102" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="D102" s="31"/>
+      <c r="F102" s="30"/>
+    </row>
+    <row r="103" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="29">
+        <v>13</v>
+      </c>
+      <c r="B103" s="30" t="s">
         <v>302</v>
       </c>
-      <c r="D100" s="7"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="21">
-        <v>13</v>
-      </c>
-      <c r="B101" s="22" t="s">
-        <v>305</v>
-      </c>
-      <c r="C101" s="22" t="s">
-        <v>304</v>
-      </c>
-      <c r="D101" s="7"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="6"/>
-      <c r="B102" s="6"/>
-      <c r="C102" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D102" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="6"/>
-      <c r="B103" s="6"/>
-      <c r="C103" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="D103" s="8" t="s">
-        <v>66</v>
-      </c>
+      <c r="C103" s="30" t="s">
+        <v>301</v>
+      </c>
+      <c r="D103" s="31"/>
+      <c r="F103" s="30"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
-      <c r="C104" s="6"/>
-      <c r="D104" s="6"/>
-    </row>
-    <row r="105" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
+      <c r="C104" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="6"/>
+      <c r="B105" s="6"/>
+      <c r="C105" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="6"/>
+      <c r="B106" s="6"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+    </row>
+    <row r="107" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="B105" s="4" t="s">
+      <c r="B107" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C105" s="17" t="s">
+      <c r="C107" s="19" t="s">
         <v>288</v>
       </c>
-      <c r="D105" s="17"/>
-      <c r="F105" s="18"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="5">
-        <v>0</v>
-      </c>
-      <c r="B106" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="D106" s="7" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="5">
-        <v>1</v>
-      </c>
-      <c r="B107" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="C107" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="D107" s="7" t="s">
-        <v>290</v>
-      </c>
+      <c r="D107" s="19"/>
+      <c r="F107" s="17"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D108" s="7" t="s">
         <v>290</v>
@@ -3782,13 +3805,13 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D109" s="7" t="s">
         <v>290</v>
@@ -3796,13 +3819,13 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>228</v>
+        <v>264</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D110" s="7" t="s">
         <v>290</v>
@@ -3810,13 +3833,13 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D111" s="7" t="s">
         <v>290</v>
@@ -3824,13 +3847,13 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="C112" s="14" t="s">
-        <v>219</v>
+        <v>228</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>212</v>
       </c>
       <c r="D112" s="7" t="s">
         <v>290</v>
@@ -3838,13 +3861,13 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D113" s="7" t="s">
         <v>290</v>
@@ -3852,13 +3875,13 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>215</v>
+        <v>230</v>
+      </c>
+      <c r="C114" s="14" t="s">
+        <v>219</v>
       </c>
       <c r="D114" s="7" t="s">
         <v>290</v>
@@ -3866,13 +3889,13 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D115" s="7" t="s">
         <v>290</v>
@@ -3880,130 +3903,133 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D116" s="7" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="21">
-        <v>11</v>
-      </c>
-      <c r="B117" s="22" t="s">
-        <v>307</v>
-      </c>
-      <c r="C117" s="22" t="s">
+      <c r="A117" s="5">
+        <v>9</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="5">
+        <v>10</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="29">
+        <v>11</v>
+      </c>
+      <c r="B119" s="30" t="s">
+        <v>304</v>
+      </c>
+      <c r="C119" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="D119" s="31"/>
+      <c r="F119" s="30"/>
+    </row>
+    <row r="120" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="29">
+        <v>12</v>
+      </c>
+      <c r="B120" s="30" t="s">
         <v>303</v>
       </c>
-      <c r="D117" s="7"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="21">
-        <v>12</v>
-      </c>
-      <c r="B118" s="22" t="s">
-        <v>306</v>
-      </c>
-      <c r="C118" s="22" t="s">
+      <c r="C120" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="D120" s="31"/>
+      <c r="F120" s="30"/>
+    </row>
+    <row r="121" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="29">
+        <v>13</v>
+      </c>
+      <c r="B121" s="30" t="s">
         <v>302</v>
       </c>
-      <c r="D118" s="7"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="21">
-        <v>13</v>
-      </c>
-      <c r="B119" s="22" t="s">
-        <v>305</v>
-      </c>
-      <c r="C119" s="22" t="s">
-        <v>304</v>
-      </c>
-      <c r="D119" s="7"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="6"/>
-      <c r="B120" s="6"/>
-      <c r="C120" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D120" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="6"/>
-      <c r="B121" s="6"/>
-      <c r="C121" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="D121" s="8" t="s">
-        <v>66</v>
-      </c>
+      <c r="C121" s="30" t="s">
+        <v>301</v>
+      </c>
+      <c r="D121" s="31"/>
+      <c r="F121" s="30"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="6"/>
       <c r="B122" s="6"/>
-      <c r="C122" s="6"/>
-      <c r="D122" s="6"/>
-    </row>
-    <row r="123" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="3" t="s">
+      <c r="C122" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="6"/>
+      <c r="B123" s="6"/>
+      <c r="C123" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="6"/>
+      <c r="B124" s="6"/>
+      <c r="C124" s="6"/>
+      <c r="D124" s="6"/>
+    </row>
+    <row r="125" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="B123" s="4" t="s">
+      <c r="B125" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C123" s="17" t="s">
+      <c r="C125" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="D123" s="17"/>
-      <c r="F123" s="18"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="5">
-        <v>0</v>
-      </c>
-      <c r="B124" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="C124" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="D124" s="7" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="5">
-        <v>1</v>
-      </c>
-      <c r="B125" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="C125" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="D125" s="7" t="s">
-        <v>290</v>
-      </c>
+      <c r="D125" s="19"/>
+      <c r="F125" s="17"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D126" s="7" t="s">
         <v>290</v>
@@ -4011,13 +4037,13 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D127" s="7" t="s">
         <v>290</v>
@@ -4025,13 +4051,13 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D128" s="7" t="s">
         <v>290</v>
@@ -4039,13 +4065,13 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D129" s="7" t="s">
         <v>290</v>
@@ -4053,13 +4079,13 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="C130" s="14" t="s">
-        <v>219</v>
+        <v>237</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>212</v>
       </c>
       <c r="D130" s="7" t="s">
         <v>290</v>
@@ -4067,13 +4093,13 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D131" s="7" t="s">
         <v>290</v>
@@ -4081,13 +4107,13 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="C132" s="6" t="s">
-        <v>215</v>
+        <v>239</v>
+      </c>
+      <c r="C132" s="14" t="s">
+        <v>219</v>
       </c>
       <c r="D132" s="7" t="s">
         <v>290</v>
@@ -4095,13 +4121,13 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D133" s="7" t="s">
         <v>290</v>
@@ -4109,130 +4135,133 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D134" s="7" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="21">
-        <v>11</v>
-      </c>
-      <c r="B135" s="22" t="s">
-        <v>308</v>
-      </c>
-      <c r="C135" s="22" t="s">
-        <v>303</v>
-      </c>
-      <c r="D135" s="7"/>
+      <c r="A135" s="5">
+        <v>9</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D135" s="7" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="21">
+      <c r="A136" s="5">
+        <v>10</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D136" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="29">
+        <v>11</v>
+      </c>
+      <c r="B137" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="C137" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="D137" s="31"/>
+      <c r="F137" s="30"/>
+    </row>
+    <row r="138" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="29">
         <v>12</v>
       </c>
-      <c r="B136" s="22" t="s">
-        <v>309</v>
-      </c>
-      <c r="C136" s="22" t="s">
-        <v>302</v>
-      </c>
-      <c r="D136" s="7"/>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="21">
+      <c r="B138" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="C138" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="D138" s="31"/>
+      <c r="F138" s="30"/>
+    </row>
+    <row r="139" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="29">
         <v>13</v>
       </c>
-      <c r="B137" s="22" t="s">
-        <v>310</v>
-      </c>
-      <c r="C137" s="22" t="s">
-        <v>304</v>
-      </c>
-      <c r="D137" s="7"/>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="6"/>
-      <c r="B138" s="6"/>
-      <c r="C138" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D138" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="6"/>
-      <c r="B139" s="6"/>
-      <c r="C139" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="D139" s="8" t="s">
-        <v>66</v>
-      </c>
+      <c r="B139" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="C139" s="30" t="s">
+        <v>301</v>
+      </c>
+      <c r="D139" s="31"/>
+      <c r="F139" s="30"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="6"/>
       <c r="B140" s="6"/>
-      <c r="C140" s="6"/>
-      <c r="D140" s="6"/>
-    </row>
-    <row r="141" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="3" t="s">
+      <c r="C140" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D140" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="6"/>
+      <c r="B141" s="6"/>
+      <c r="C141" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="6"/>
+      <c r="B142" s="6"/>
+      <c r="C142" s="6"/>
+      <c r="D142" s="6"/>
+    </row>
+    <row r="143" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="B141" s="4" t="s">
+      <c r="B143" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C141" s="17" t="s">
+      <c r="C143" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="D141" s="17"/>
-      <c r="F141" s="18"/>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="5">
-        <v>0</v>
-      </c>
-      <c r="B142" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="C142" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="D142" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="5">
-        <v>1</v>
-      </c>
-      <c r="B143" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="C143" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="D143" s="7" t="s">
-        <v>245</v>
-      </c>
+      <c r="D143" s="19"/>
+      <c r="F143" s="17"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D144" s="7" t="s">
         <v>245</v>
@@ -4240,13 +4269,13 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D145" s="7" t="s">
         <v>245</v>
@@ -4254,13 +4283,13 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D146" s="7" t="s">
         <v>245</v>
@@ -4268,13 +4297,13 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D147" s="7" t="s">
         <v>245</v>
@@ -4282,13 +4311,13 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="C148" s="14" t="s">
-        <v>219</v>
+        <v>251</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>212</v>
       </c>
       <c r="D148" s="7" t="s">
         <v>245</v>
@@ -4296,13 +4325,13 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D149" s="7" t="s">
         <v>245</v>
@@ -4310,13 +4339,13 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="C150" s="6" t="s">
-        <v>215</v>
+        <v>253</v>
+      </c>
+      <c r="C150" s="14" t="s">
+        <v>219</v>
       </c>
       <c r="D150" s="7" t="s">
         <v>245</v>
@@ -4324,13 +4353,13 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D151" s="7" t="s">
         <v>245</v>
@@ -4338,193 +4367,221 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D152" s="7" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="6"/>
-      <c r="B153" s="6"/>
+      <c r="A153" s="5">
+        <v>9</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>256</v>
+      </c>
       <c r="C153" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D153" s="8" t="s">
-        <v>64</v>
+        <v>216</v>
+      </c>
+      <c r="D153" s="7" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" s="6"/>
-      <c r="B154" s="6"/>
+      <c r="A154" s="5">
+        <v>10</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>257</v>
+      </c>
       <c r="C154" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="D154" s="8" t="s">
-        <v>66</v>
+        <v>218</v>
+      </c>
+      <c r="D154" s="7" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="6"/>
       <c r="B155" s="6"/>
-      <c r="C155" s="6"/>
-      <c r="D155" s="6"/>
-    </row>
-    <row r="156" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="3" t="s">
+      <c r="C155" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D155" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="6"/>
+      <c r="B156" s="6"/>
+      <c r="C156" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D156" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="6"/>
+      <c r="B157" s="6"/>
+      <c r="C157" s="6"/>
+      <c r="D157" s="6"/>
+    </row>
+    <row r="158" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="B156" s="4" t="s">
+      <c r="B158" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C156" s="17" t="s">
+      <c r="C158" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="D156" s="17"/>
-      <c r="F156" s="18"/>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" s="5">
-        <v>0</v>
-      </c>
-      <c r="B157" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="C157" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="D157" s="7" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" s="5">
-        <v>1</v>
-      </c>
-      <c r="B158" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="C158" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="D158" s="7" t="s">
-        <v>275</v>
-      </c>
+      <c r="D158" s="19"/>
+      <c r="F158" s="17"/>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="5">
+        <v>0</v>
+      </c>
+      <c r="B159" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="D159" s="7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="5">
+        <v>1</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D160" s="7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="5">
         <v>2</v>
       </c>
-      <c r="B159" s="6" t="s">
+      <c r="B161" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="C159" s="6"/>
-      <c r="D159" s="6" t="s">
+      <c r="C161" s="6"/>
+      <c r="D161" s="6" t="s">
         <v>274</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" s="6"/>
-      <c r="B160" s="6"/>
-      <c r="C160" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D160" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" s="6"/>
-      <c r="B161" s="6"/>
-      <c r="C161" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="D161" s="8" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="6"/>
       <c r="B162" s="6"/>
-      <c r="C162" s="6"/>
-      <c r="D162" s="6"/>
-    </row>
-    <row r="163" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="3" t="s">
+      <c r="C162" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D162" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" s="6"/>
+      <c r="B163" s="6"/>
+      <c r="C163" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="D163" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="6"/>
+      <c r="B164" s="6"/>
+      <c r="C164" s="6"/>
+      <c r="D164" s="6"/>
+    </row>
+    <row r="165" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="B163" s="4" t="s">
+      <c r="B165" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C163" s="17" t="s">
+      <c r="C165" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="D163" s="17"/>
-      <c r="F163" s="18"/>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="5">
-        <v>0</v>
-      </c>
-      <c r="B164" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="C164" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="D164" s="7" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" s="5">
-        <v>1</v>
-      </c>
-      <c r="B165" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="C165" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="D165" s="6" t="s">
-        <v>275</v>
-      </c>
+      <c r="D165" s="19"/>
+      <c r="F165" s="17"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="5">
+        <v>0</v>
+      </c>
+      <c r="B166" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="D166" s="7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" s="5">
+        <v>1</v>
+      </c>
+      <c r="B167" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="D167" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" s="5">
         <v>2</v>
       </c>
-      <c r="B166" s="6" t="s">
+      <c r="B168" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="C166" s="6" t="s">
+      <c r="C168" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="D166" s="6" t="s">
+      <c r="D168" s="6" t="s">
         <v>282</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="C141:D141"/>
-    <mergeCell ref="C156:D156"/>
-    <mergeCell ref="C163:D163"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="C143:D143"/>
+    <mergeCell ref="C158:D158"/>
+    <mergeCell ref="C165:D165"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C107:D107"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" orientation="portrait" r:id="rId1"/>
